--- a/LHIND_Mitbericht/GS/09 FD_Zuordnung_Mitbeteiligt_Kanal_fuer_Fachdaten-Zuordnungen_06092019_003010.xlsx
+++ b/LHIND_Mitbericht/GS/09 FD_Zuordnung_Mitbeteiligt_Kanal_fuer_Fachdaten-Zuordnungen_06092019_003010.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U720494\Downloads\Geschäftskonfiguration Mitberichtsverfahren BRA eigenes Departement\GS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U720494\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\33DJ7GCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inhalt" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Transportkanal</t>
   </si>
@@ -195,9 +195,6 @@
     <t>36CC633E-EFC8-428D-8AE7-B43FD4DAA470:FileCaseTypeClassificationType</t>
   </si>
   <si>
-    <t>Fachdaten</t>
-  </si>
-  <si>
     <t>de-CH</t>
   </si>
   <si>
@@ -496,16 +493,7 @@
     <t>1BA9D3E9-07E7-4A2E-AE34-3F2A096F2353:SpecialdataStringProperty</t>
   </si>
   <si>
-    <t>SpecialdataBooleanProperty</t>
-  </si>
-  <si>
-    <t>95f5ac4c-5469-4c5b-9419-4b2f8c5fc9c4</t>
-  </si>
-  <si>
-    <t>C9CCA1CF-4606-42DE-8EAE-03685B8ED31E</t>
-  </si>
-  <si>
-    <t>DE01B093-8730-4C07-86A7-5CE5A610908C:SpecialdataBooleanProperty</t>
+    <t>Auftrag</t>
   </si>
 </sst>
 </file>
@@ -560,8 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -876,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,13 +877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -904,7 +891,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -912,7 +899,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -920,20 +907,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1013,14 +1000,6 @@
       </c>
       <c r="B17" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1036,9 +1015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,16 +1029,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1071,10 +1050,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1085,11 +1064,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1153,33 +1132,33 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1188,33 +1167,33 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1223,33 +1202,33 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1258,33 +1237,33 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1293,33 +1272,33 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1328,33 +1307,33 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1363,33 +1342,33 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1398,33 +1377,33 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1433,33 +1412,33 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1468,63 +1447,28 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
